--- a/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
+++ b/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario.207\Documents\GitHub\Presupuesto\Clase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Clase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF5FF1B-3AD1-49A0-AD0E-D9CA187508AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="3" activeTab="5" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="657" firstSheet="2" activeTab="6" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,29 @@
     <sheet name="Tipo Rubro" sheetId="4" r:id="rId4"/>
     <sheet name="Tipo Rubro- Datos Simulados" sheetId="6" r:id="rId5"/>
     <sheet name="Rubro" sheetId="5" r:id="rId6"/>
+    <sheet name="Tipo Identificacion" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -249,6 +260,36 @@
   </si>
   <si>
     <t>Datos Simulados</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Departamento/Estado</t>
+  </si>
+  <si>
+    <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t>¿Calculado?</t>
+  </si>
+  <si>
+    <t>¿Sensible?</t>
+  </si>
+  <si>
+    <t>Formato de un identificador unico universal (UUID)</t>
+  </si>
+  <si>
+    <t>Atributo que representa el identificador de un tipo de identificacion, asegurando que sea unico</t>
+  </si>
+  <si>
+    <t>Atributo que representael nombre de un tipo de identificacion determinado</t>
+  </si>
+  <si>
+    <t>No es posible tener masde un tipo de identificacion con el mismo nombre</t>
   </si>
 </sst>
 </file>
@@ -294,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -317,12 +358,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -330,44 +384,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,10 +436,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A849B36B-9185-41AB-8255-64BF2F5892F9}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,6 +1096,26 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1037,13 +1132,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:P1"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
@@ -1059,386 +1154,386 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="str">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="18" t="str">
         <f>'Objetos de Dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16" s="11" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="str">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="19" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="10"/>
+      <c r="K5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>36</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>36</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>50</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>1000</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <f>D6</f>
         <v>36</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <f>D8</f>
         <v>1000</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" s="13" t="str">
         <f>$A$7</f>
         <v>Nombre</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <v>4000</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <f>SUM(D11:D14)</f>
         <v>5038</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <f>D15/1024</f>
         <v>4.919921875</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
         <f>D16/1024</f>
         <v>4.8046112060546875E-3</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <f>D17/1024</f>
         <v>4.6920031309127808E-6</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1513,130 +1608,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="str">
+      <c r="A2" s="15" t="str">
         <f>'Tipo Rubro'!$A$6</f>
         <v>Identificador</v>
       </c>
-      <c r="B2" s="20" t="str">
+      <c r="B2" s="15" t="str">
         <f>'Tipo Rubro'!$A$7</f>
         <v>Nombre</v>
       </c>
-      <c r="C2" s="20" t="str">
+      <c r="C2" s="15" t="str">
         <f>'Tipo Rubro'!$A$8</f>
         <v>Descripcion</v>
       </c>
-      <c r="D2" s="20" t="str">
+      <c r="D2" s="15" t="str">
         <f>'Tipo Rubro'!$A$9</f>
         <v>Estado</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1669,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F05F70A-C6A8-4852-B63E-0435180A2A1A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -1711,4 +1806,369 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F44EA2-F196-4F9F-A7F8-D22ADEEA91C2}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="4" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="46.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="68.28515625" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
+        <f>'Objetos de Dominio'!$A$1&amp;":"</f>
+        <v>Objeto de Dominio:</v>
+      </c>
+      <c r="B2" s="19" t="str">
+        <f>'Objetos de Dominio'!A2</f>
+        <v>Tipo Rubro</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
+        <f>'Objetos de Dominio'!$B$1&amp;":"</f>
+        <v>Descripción:</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f>'Objetos de Dominio'!$B$2</f>
+        <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="25">
+        <v>10</v>
+      </c>
+      <c r="D6" s="25">
+        <v>10</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+    </row>
+    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>$A$7</f>
+        <v>Nombre</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{EA175934-C912-41EB-A2C9-56FB91C8A43A}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro- Datos Simulados'!A1" display="Datos Simulados" xr:uid="{36D08B3A-6FDA-4DC8-967D-C9E114F9CA06}"/>
+    <hyperlink ref="A1:P1" location="'Objetos de Dominio'!A15" display="Volver al Inicio" xr:uid="{E969C102-5E5E-4427-B878-308DA1AA279F}"/>
+    <hyperlink ref="C12" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{62E74DB6-1CDD-4ACC-9357-65E27D74578D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5CEE16E6-5621-4456-ABAF-3EEAF12D92DE}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{919C2EB4-3159-4F0D-8BE1-39D22AFF7440}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
+++ b/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Clase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF5FF1B-3AD1-49A0-AD0E-D9CA187508AE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356FD2A6-5B9F-412A-BE18-DF9469DBF66B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="657" firstSheet="2" activeTab="6" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="657" firstSheet="3" activeTab="7" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Tipo Rubro- Datos Simulados" sheetId="6" r:id="rId5"/>
     <sheet name="Rubro" sheetId="5" r:id="rId6"/>
     <sheet name="Tipo Identificacion" sheetId="7" r:id="rId7"/>
+    <sheet name="Tipo Identificacion-Datos Simul" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -290,6 +291,27 @@
   </si>
   <si>
     <t>No es posible tener masde un tipo de identificacion con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Cedula</t>
+  </si>
+  <si>
+    <t>Tipo de identificacion que sirve para asociarlo a las personas mayores de edady que ya han sacado si cedula</t>
+  </si>
+  <si>
+    <t>Cedula Extranjeria</t>
+  </si>
+  <si>
+    <t>Numero de identificacion personal</t>
+  </si>
+  <si>
+    <t>Identificacion Tibutaria</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>Tarjeta de identidad</t>
   </si>
 </sst>
 </file>
@@ -376,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -421,6 +443,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -439,22 +479,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,72 +1179,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="18" t="str">
+      <c r="B2" s="24" t="str">
         <f>'Objetos de Dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1473,10 +1498,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1490,8 +1515,8 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="10" t="s">
         <v>63</v>
       </c>
@@ -1598,7 +1623,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,24 +1633,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
@@ -1812,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F44EA2-F196-4F9F-A7F8-D22ADEEA91C2}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B12" sqref="B12"/>
     </sheetView>
@@ -1837,75 +1862,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="19" t="str">
+      <c r="B2" s="25" t="str">
         <f>'Objetos de Dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="19" t="str">
+      <c r="B3" s="25" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="8"/>
@@ -1925,7 +1950,7 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1975,48 +2000,48 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>10</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="19">
         <v>10</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -2057,44 +2082,44 @@
       <c r="P7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-    </row>
-    <row r="8" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -2120,10 +2145,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="27" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2131,8 +2156,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="10" t="s">
         <v>63</v>
       </c>
@@ -2171,4 +2196,133 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9D1DF-C9BD-4E54-B8A3-D913FB05DB72}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f>'Tipo Rubro'!$A$6</f>
+        <v>Identificador</v>
+      </c>
+      <c r="B2" s="29" t="str">
+        <f>'Tipo Rubro'!$A$7</f>
+        <v>Nombre</v>
+      </c>
+      <c r="C2" s="15" t="str">
+        <f>'Tipo Rubro'!$A$8</f>
+        <v>Descripcion</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f>'Tipo Rubro'!$A$9</f>
+        <v>Estado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Tipo Rubro'!A6" display="'Tipo Rubro'!A6" xr:uid="{98E25BF8-62EC-418E-9AD4-F090776A36DA}"/>
+    <hyperlink ref="B2" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{F473D5C9-05AB-4D8B-B0F9-968CDED2DE95}"/>
+    <hyperlink ref="C2" location="'Tipo Rubro'!A8" display="'Tipo Rubro'!A8" xr:uid="{BB2E1AAA-06D9-452F-9FBB-C78C1B981386}"/>
+    <hyperlink ref="D2" location="'Tipo Rubro'!A9" display="'Tipo Rubro'!A9" xr:uid="{C2CAA311-1A98-488B-9CEB-CA0D5DFD6061}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{F0D5C8AD-EEE5-4374-A897-6F97CF494000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8B79FC6-86C3-4F56-A2B8-003F3362BEE1}">
+          <x14:formula1>
+            <xm:f>Valores!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
+++ b/Clase/Modelo de dominio/Modelado de dominio enriquecido.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddfc1a2aaa1b6043/Documentos/GitHub/Presupuesto/Clase/Modelo de dominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356FD2A6-5B9F-412A-BE18-DF9469DBF66B}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{C43FD99A-738B-4C32-8F0D-7948FDBB67D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A29D2EA7-4A41-4175-B98D-7AB3FA933946}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="657" firstSheet="3" activeTab="7" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="657" firstSheet="3" activeTab="5" xr2:uid="{40064D5F-B35F-41F3-A50B-554BD813C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
   <si>
     <t>Tipo de Dato</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</t>
   </si>
   <si>
-    <t>Volver al inicio</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -305,13 +302,46 @@
     <t>Numero de identificacion personal</t>
   </si>
   <si>
-    <t>Identificacion Tibutaria</t>
-  </si>
-  <si>
     <t>Pasaporte</t>
   </si>
   <si>
     <t>Tarjeta de identidad</t>
+  </si>
+  <si>
+    <t>Tipo de identificacion que sirve para asociarlo a los los extranjeros y certidicacion de ciudadano en el pais</t>
+  </si>
+  <si>
+    <t>Tipo de identificacion que registra a una persona desde su nacimiento hasta su muerte</t>
+  </si>
+  <si>
+    <t>Identificacion Tributaria</t>
+  </si>
+  <si>
+    <t>Tipo de identificacion que sirve para poder identificar a toda persona natural o juridica</t>
+  </si>
+  <si>
+    <t>Tipo de documento que es autoriazado por una nacion todo tipo de persona para viejar fuera del pais</t>
+  </si>
+  <si>
+    <t>Tipo de documento usado por niños de 7 años hasta la mayoria de edad y sirva para la identificacion de menros de edad</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Solo numeros</t>
+  </si>
+  <si>
+    <t>Atributo que la cantidad de rubro que se moviliza</t>
+  </si>
+  <si>
+    <t>Solo letras y numeros</t>
+  </si>
+  <si>
+    <t>Atributo que representa el tipo de rubro que se esta usando en el rubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los rubros deben de tener codigo para </t>
   </si>
 </sst>
 </file>
@@ -398,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -461,6 +491,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -478,8 +511,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -966,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -979,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -990,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,22 +1158,22 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1179,119 +1212,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="25" t="str">
         <f>'Objetos de Dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="26" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>21</v>
@@ -1299,7 +1332,7 @@
     </row>
     <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>1</v>
@@ -1314,12 +1347,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11" t="s">
@@ -1332,12 +1365,12 @@
         <v>8</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1</v>
@@ -1352,12 +1385,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11" t="s">
@@ -1370,12 +1403,12 @@
         <v>9</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>1</v>
@@ -1390,14 +1423,14 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11" t="s">
@@ -1410,12 +1443,12 @@
         <v>9</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>4</v>
@@ -1431,7 +1464,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1446,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1458,33 +1491,33 @@
         <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D12" s="6">
         <f>D8</f>
         <v>1000</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C13" s="13" t="str">
         <f>$A$7</f>
@@ -1494,31 +1527,31 @@
         <v>4000</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="6">
         <f>SUM(D11:D14)</f>
@@ -1535,7 +1568,7 @@
         <v>4.919921875</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1547,7 +1580,7 @@
         <v>4.8046112060546875E-3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1592,7 @@
         <v>4.6920031309127808E-6</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,7 +1600,7 @@
         <v>4000000</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1633,24 +1666,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
@@ -1675,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1689,13 +1722,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1703,11 +1736,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1787,49 +1820,383 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F05F70A-C6A8-4852-B63E-0435180A2A1A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" t="str">
-        <f>'Objetos de Dominio'!$A$3</f>
-        <v>Rubro</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="B2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" t="str">
-        <f>'Objetos de Dominio'!$B$3</f>
-        <v>a</v>
+      <c r="B3" s="26" t="str">
+        <f>'Objetos de Dominio'!$B$2</f>
+        <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19">
+        <v>10</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+    </row>
+    <row r="8" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>50</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>$A$7</f>
+        <v>Cantidad</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{AAF3485C-DA86-41CA-B596-85809653EF3C}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{8B123C6D-A6F1-45AE-899B-34B61148C7CB}"/>
+    <hyperlink ref="A4" location="'Tipo Rubro- Datos Simulados'!A1" display="Datos Simulados" xr:uid="{79A10D29-A1CC-4C27-B3E9-65034E484083}"/>
+    <hyperlink ref="A1:P1" location="'Objetos de Dominio'!A15" display="Volver al Inicio" xr:uid="{311E0DB5-2C9A-4DFE-B6A5-019F59800C7C}"/>
+    <hyperlink ref="C12" location="'Tipo Rubro'!A7" display="'Tipo Rubro'!A7" xr:uid="{DA43B6D2-643E-4C23-A6DD-D54D40524577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{46CCDDC6-CA9B-4299-BE4D-DA2A1EFB72B8}">
+          <x14:formula1>
+            <xm:f>Valores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6:B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{89639D58-60A5-4B7A-B019-FEBD591A94A8}">
+          <x14:formula1>
+            <xm:f>Valores!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K6:O9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1839,7 +2206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,76 +2229,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="str">
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="26" t="str">
         <f>'Objetos de Dominio'!A2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripción:</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="26" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubro, el cual corresponde a la categoria a la cual pertence un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro  puede ser ingreso, el cual indica que los rubros catagorizados con él, corresponde a dinero que la persona va a recibir por diferentes razones: salarios ,inversiones, ganancias ocacionales</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1951,49 +2318,49 @@
     </row>
     <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="O5" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
@@ -2001,7 +2368,7 @@
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>1</v>
@@ -2016,11 +2383,11 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
       <c r="H6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>8</v>
@@ -2038,12 +2405,12 @@
         <v>8</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1</v>
@@ -2058,11 +2425,11 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>9</v>
@@ -2080,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
@@ -2123,21 +2490,21 @@
     </row>
     <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="13" t="str">
         <f>$A$7</f>
@@ -2145,21 +2512,21 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="10" t="s">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="10" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2202,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B9D1DF-C9BD-4E54-B8A3-D913FB05DB72}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,31 +2582,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f>'Tipo Rubro'!$A$6</f>
         <v>Identificador</v>
       </c>
-      <c r="B2" s="29" t="str">
+      <c r="B2" s="23" t="str">
         <f>'Tipo Rubro'!$A$7</f>
         <v>Nombre</v>
       </c>
@@ -2257,13 +2624,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2271,33 +2638,45 @@
         <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
